--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_28_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_28_1.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_24</t>
+          <t>model_28_1_10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998280740960419</v>
+        <v>0.9998517663108089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991987442299711</v>
+        <v>0.999337945974723</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9995414337822375</v>
+        <v>0.9999718987711056</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9975879800329609</v>
+        <v>0.9999828011908665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9990841539142375</v>
+        <v>0.9999776867199953</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001604852846698667</v>
+        <v>0.0001383696421530065</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007479370902584958</v>
+        <v>0.0006179983717830697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003742167360678925</v>
+        <v>1.895867070559665e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006275662067439416</v>
+        <v>7.291030776429262e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0005008914714059171</v>
+        <v>1.312548666459615e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008643220034258065</v>
+        <v>0.0008235649315307992</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01266827867825249</v>
+        <v>0.01176306261791573</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000196486747381</v>
+        <v>1.000169409930504</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01320759352853776</v>
+        <v>0.01226384054645689</v>
       </c>
       <c r="P2" t="n">
-        <v>107.4746166077947</v>
+        <v>107.7711637748932</v>
       </c>
       <c r="Q2" t="n">
-        <v>162.3240287268638</v>
+        <v>162.6205758939622</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_23</t>
+          <t>model_28_1_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998276035430859</v>
+        <v>0.9998180968161517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999198648104284</v>
+        <v>0.999337634524689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9995395497998675</v>
+        <v>0.9999671999663964</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9975844640641827</v>
+        <v>0.9999805570214331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999081903792151</v>
+        <v>0.9999741845836425</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001609245251994383</v>
+        <v>0.0001697986374954397</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007480268193679901</v>
+        <v>0.0006182890967187171</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003757541753864234</v>
+        <v>2.212874883725912e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000628481001488331</v>
+        <v>8.242393645725561e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000502122100635351</v>
+        <v>1.518557124149234e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008696205345471884</v>
+        <v>0.0009065097507167416</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01268560306802315</v>
+        <v>0.01303068062287768</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000197024522188</v>
+        <v>1.000207889352969</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01322565545344738</v>
+        <v>0.01358542367422108</v>
       </c>
       <c r="P3" t="n">
-        <v>107.4691501809524</v>
+        <v>107.3617946165843</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.3185623000214</v>
+        <v>162.2112067356533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_22</t>
+          <t>model_28_1_11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998270682576492</v>
+        <v>0.9998793428501941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999198529731807</v>
+        <v>0.9993361577954147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9995374427065915</v>
+        <v>0.9999759658001554</v>
       </c>
       <c r="E4" t="n">
-        <v>0.99758049209014</v>
+        <v>0.9999828914004404</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999079386990713</v>
+        <v>0.9999800526340522</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001614241906583153</v>
+        <v>0.0001126281531070583</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007481373148793583</v>
+        <v>0.0006196675586753159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003774736861958953</v>
+        <v>1.621482399357618e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006295144409777742</v>
+        <v>7.25278854842254e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005034985812417767</v>
+        <v>1.173376956173787e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008755060746020666</v>
+        <v>0.0007534838869521203</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01270528199837829</v>
+        <v>0.01061264119373958</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000197636276972</v>
+        <v>1.000137893885493</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01324617215660874</v>
+        <v>0.01106444330055292</v>
       </c>
       <c r="P4" t="n">
-        <v>107.4629498663926</v>
+        <v>108.1828376918332</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3123619854616</v>
+        <v>163.0322498109022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_21</t>
+          <t>model_28_1_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998264666067428</v>
+        <v>0.9997777606996761</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991983891495562</v>
+        <v>0.999335393685199</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9995350930732038</v>
+        <v>0.9999623360104494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9975760528792058</v>
+        <v>0.9999761981225778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999076586373036</v>
+        <v>0.9999698235934047</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001619858053699628</v>
+        <v>0.0002074506316745701</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007482685422397121</v>
+        <v>0.0006203808220212022</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003793911238597628</v>
+        <v>2.541024728957747e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006306694474888856</v>
+        <v>1.009024633476836e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0005050302856743242</v>
+        <v>1.775086505745284e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008820585187844871</v>
+        <v>0.0009888682781135519</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01272736443141167</v>
+        <v>0.01440314658935922</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000198323878008</v>
+        <v>1.000253987771799</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01326919468453329</v>
+        <v>0.01501631835829196</v>
       </c>
       <c r="P5" t="n">
-        <v>107.4560036954878</v>
+        <v>106.961234332483</v>
       </c>
       <c r="Q5" t="n">
-        <v>162.3054158145569</v>
+        <v>161.8106464515521</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_20</t>
+          <t>model_28_1_12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998257848775957</v>
+        <v>0.9999017205781927</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991982204409982</v>
+        <v>0.9993320608404627</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9995324618238219</v>
+        <v>0.9999791945522299</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9975711217040554</v>
+        <v>0.9999813458740872</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999073453007516</v>
+        <v>0.9999813472109732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001626221696044324</v>
+        <v>9.173952628904854e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007484260242730843</v>
+        <v>0.0006234918862874988</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003815383765733634</v>
+        <v>1.403652611197714e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006319524546473146</v>
+        <v>7.907978109500253e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0005067439754417351</v>
+        <v>1.097225211073869e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008893282554840659</v>
+        <v>0.0006946450461662554</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01275233976980038</v>
+        <v>0.009578075291468978</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000199102997034</v>
+        <v>1.000112319339208</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01329523327478329</v>
+        <v>0.009985833785975997</v>
       </c>
       <c r="P6" t="n">
-        <v>107.4481620514278</v>
+        <v>108.593114464867</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.2975741704969</v>
+        <v>163.4425265839361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_19</t>
+          <t>model_28_1_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998250150183086</v>
+        <v>0.9997300777905069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991980151919854</v>
+        <v>0.9993320598221556</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9995295336056825</v>
+        <v>0.9999581023791587</v>
       </c>
       <c r="E7" t="n">
-        <v>0.997565663974899</v>
+        <v>0.9999706189043729</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9990699675730005</v>
+        <v>0.9999653856351447</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001633407994560319</v>
+        <v>0.0002519605343460879</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007486176152171589</v>
+        <v>0.0006234928368325454</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000383927973085666</v>
+        <v>2.826649325059434e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006333724621227586</v>
+        <v>1.245542472148285e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0005086502176042122</v>
+        <v>2.036143427664938e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0008974025801340077</v>
+        <v>0.001067787224679183</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01278048510253159</v>
+        <v>0.01587326476645834</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000199982836219</v>
+        <v>1.000308482525135</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01332457681259774</v>
+        <v>0.01654902250975436</v>
       </c>
       <c r="P7" t="n">
-        <v>107.4393434912343</v>
+        <v>106.5724761849104</v>
       </c>
       <c r="Q7" t="n">
-        <v>162.2887556103033</v>
+        <v>161.4218883039794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_18</t>
+          <t>model_28_1_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998241425319311</v>
+        <v>0.9996745807833212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991977642170226</v>
+        <v>0.9993274792303185</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9995262590240652</v>
+        <v>0.9999551663221128</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9975595950751406</v>
+        <v>0.9999651894425836</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9990660809909476</v>
+        <v>0.999961746307144</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001641552271916113</v>
+        <v>0.0003037645545169405</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007488518893283878</v>
+        <v>0.0006277686182476277</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003866002223647375</v>
+        <v>3.024732259137887e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006349514857015538</v>
+        <v>1.475711739669612e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0005107758540331456</v>
+        <v>2.25022199940375e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009063720258261608</v>
+        <v>0.001143030185469047</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01281230764505798</v>
+        <v>0.01742884260405551</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000200979963507</v>
+        <v>1.000371907676204</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01335775410664122</v>
+        <v>0.01817082451638808</v>
       </c>
       <c r="P8" t="n">
-        <v>107.4293961410594</v>
+        <v>106.1985152967046</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2788082601284</v>
+        <v>161.0479274157736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_17</t>
+          <t>model_28_1_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998231534095458</v>
+        <v>0.9999197603324982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991974616646957</v>
+        <v>0.999326266040419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9995226121058135</v>
+        <v>0.9999815207135047</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997552833187499</v>
+        <v>0.9999785324589686</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9990617517894091</v>
+        <v>0.9999816678865835</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001650785295209104</v>
+        <v>7.490020749863469e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007491343086450676</v>
+        <v>0.0006289010777659997</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003895763200187084</v>
+        <v>1.24671667867196e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006367108128363504</v>
+        <v>9.100659303695127e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005131435664275294</v>
+        <v>1.0783618998747e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0009166866649867133</v>
+        <v>0.0006391076157427394</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01284828897250176</v>
+        <v>0.008654490597293101</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000202110389091</v>
+        <v>1.000091702477145</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0133952672336859</v>
+        <v>0.00902293017928517</v>
       </c>
       <c r="P9" t="n">
-        <v>107.4181785215903</v>
+        <v>108.9987077942054</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.2675906406594</v>
+        <v>163.8481199132744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_16</t>
+          <t>model_28_1_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998220275160078</v>
+        <v>0.9996107525666981</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991970933558995</v>
+        <v>0.9993217550066591</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9995185230178365</v>
+        <v>0.9999543704830317</v>
       </c>
       <c r="E10" t="n">
-        <v>0.997545317639127</v>
+        <v>0.9999615875461212</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9990569134373127</v>
+        <v>0.9999599920322783</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001661295017175144</v>
+        <v>0.0003633453929996926</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007494781087394812</v>
+        <v>0.0006331119297693403</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003929132539160896</v>
+        <v>3.078424042972344e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006386662295608482</v>
+        <v>1.628405671888852e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0005157897417384688</v>
+        <v>2.353414857430598e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009288441924105167</v>
+        <v>0.001213496360263728</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01288912338824927</v>
+        <v>0.01906162094365777</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000203397124563</v>
+        <v>1.000444854209488</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01343784005505068</v>
+        <v>0.01987311361022432</v>
       </c>
       <c r="P10" t="n">
-        <v>107.4054858858464</v>
+        <v>105.8403133604355</v>
       </c>
       <c r="Q10" t="n">
-        <v>162.2548980049154</v>
+        <v>160.6897254795045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_15</t>
+          <t>model_28_1_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998207425032122</v>
+        <v>0.9999342355848955</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991966476857337</v>
+        <v>0.9993193881340859</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999513942559457</v>
+        <v>0.9999829803361674</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9975369197930501</v>
+        <v>0.9999746962789035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9990514986302973</v>
+        <v>0.999981121480271</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001673290047566937</v>
+        <v>6.138819477586036e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007498941222765215</v>
+        <v>0.0006353213014226758</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003966511746744881</v>
+        <v>1.148242318278121e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006408512050085232</v>
+        <v>1.072691765110122e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0005187511898415056</v>
+        <v>1.110503515837435e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0009423396260593986</v>
+        <v>0.0005875127064176994</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01293557129610802</v>
+        <v>0.007835061887174878</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000204865710615</v>
+        <v>1.000075159331548</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0134862653465074</v>
+        <v>0.008168616692525939</v>
       </c>
       <c r="P11" t="n">
-        <v>107.3910971905262</v>
+        <v>109.3965860175821</v>
       </c>
       <c r="Q11" t="n">
-        <v>162.2405093095953</v>
+        <v>164.2459981366512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_14</t>
+          <t>model_28_1_4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998192751734905</v>
+        <v>0.9995387606253821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991961004591433</v>
+        <v>0.9993146652637034</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9995088105903416</v>
+        <v>0.9999561927766811</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9975275817189569</v>
+        <v>0.9999606809672883</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9990454487209554</v>
+        <v>0.999960710364975</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00016869869264361</v>
+        <v>0.0004305467101372165</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007504049342781778</v>
+        <v>0.0006397298936147943</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004008391603078974</v>
+        <v>2.955481856503645e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0006432808116523501</v>
+        <v>1.66683795008084e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0005220599859801238</v>
+        <v>2.311159903292243e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0009573299751384247</v>
+        <v>0.001289027481105914</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01298840608556762</v>
+        <v>0.02074961951789036</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000206542658868</v>
+        <v>1.000527130713849</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01354134942233738</v>
+        <v>0.02163297377840075</v>
       </c>
       <c r="P12" t="n">
-        <v>107.3747926360714</v>
+        <v>105.500909475843</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.2242047551404</v>
+        <v>160.3503215949121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_13</t>
+          <t>model_28_1_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998175917829789</v>
+        <v>0.9999457881039562</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991954376004104</v>
+        <v>0.9993117609629322</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9995030569881725</v>
+        <v>0.9999836328085917</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9975170949522213</v>
+        <v>0.9999702101857023</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999038670224213</v>
+        <v>0.9999798796738211</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001702700637938425</v>
+        <v>5.060442532968717e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007510236838091967</v>
+        <v>0.000642440930900612</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0004055344347108482</v>
+        <v>1.10422285605541e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006460092884109331</v>
+        <v>1.262869139260486e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0005257672586976637</v>
+        <v>1.183551109001164e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0009739885129781155</v>
+        <v>0.0005411143743734512</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01304875717429988</v>
+        <v>0.007113678747995806</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000208466533738</v>
+        <v>1.000061956452621</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01360426978186095</v>
+        <v>0.007416522779643052</v>
       </c>
       <c r="P13" t="n">
-        <v>107.3562495417379</v>
+        <v>109.7829430567731</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.2056616608069</v>
+        <v>164.6323551758422</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_12</t>
+          <t>model_28_1_3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998156710551727</v>
+        <v>0.9994576244512928</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991946250763772</v>
+        <v>0.9993063909591589</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9994966151589048</v>
+        <v>0.9999612941845912</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9975055774092114</v>
+        <v>0.999963141920059</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9990311162572567</v>
+        <v>0.9999645225728728</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001720629788907707</v>
+        <v>0.000506283767183128</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007517821393284292</v>
+        <v>0.0006474535937071113</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004107913425019817</v>
+        <v>2.611312165323169e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0006490059554686128</v>
+        <v>1.562511643236349e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0005298986489852973</v>
+        <v>2.08691190427976e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009924437219158712</v>
+        <v>0.001361993145133695</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01311727787655544</v>
+        <v>0.02250075036933497</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000210661651231</v>
+        <v>1.000619857769951</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01367570755226893</v>
+        <v>0.02345865389553195</v>
       </c>
       <c r="P14" t="n">
-        <v>107.335299983656</v>
+        <v>105.1768264823185</v>
       </c>
       <c r="Q14" t="n">
-        <v>162.184712102725</v>
+        <v>160.0262386013875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_11</t>
+          <t>model_28_1_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998134652055938</v>
+        <v>0.9999550027465769</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991936243282565</v>
+        <v>0.9993035573281651</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9994893831044589</v>
+        <v>0.9999836036212426</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9974928156132891</v>
+        <v>0.9999654859303179</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9990226851938595</v>
+        <v>0.9999781607001956</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001741220426470946</v>
+        <v>4.200296091931838e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007527162937713502</v>
+        <v>0.0006500986638577104</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0004166931200533457</v>
+        <v>1.106191998908561e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0006523263557835777</v>
+        <v>1.463142839236076e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0005345097379184618</v>
+        <v>1.284667419072318e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001012943707183096</v>
+        <v>0.0005025666787984929</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01319553116199172</v>
+        <v>0.006480969134266755</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000213182622179</v>
+        <v>1.000051425432483</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01375729224207287</v>
+        <v>0.006756877407768098</v>
       </c>
       <c r="P15" t="n">
-        <v>107.3115082201768</v>
+        <v>110.1555408881735</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.1609203392458</v>
+        <v>165.0049530072426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_10</t>
+          <t>model_28_1_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998109272757679</v>
+        <v>0.999368523278051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991923978533378</v>
+        <v>0.9992963114226415</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9994812635573688</v>
+        <v>0.999969471655214</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9974786400564164</v>
+        <v>0.999967881246546</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9990132557315103</v>
+        <v>0.9999709197511005</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001764910887371993</v>
+        <v>0.0005894558013148754</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007538611542720339</v>
+        <v>0.0006568623986054889</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0004233191432812198</v>
+        <v>2.059613969762452e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000656014592438589</v>
+        <v>1.361599039299436e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0005396668678599043</v>
+        <v>1.710606504530944e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001035684144587992</v>
+        <v>0.001417322165907329</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01328499487155337</v>
+        <v>0.02427871086600101</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000216083113408</v>
+        <v>1.000721687682227</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01385056460696597</v>
+        <v>0.02531230585142667</v>
       </c>
       <c r="P16" t="n">
-        <v>107.2844803432132</v>
+        <v>104.8726216347257</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.1338924622822</v>
+        <v>159.7220337537947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_9</t>
+          <t>model_28_1_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998080043501927</v>
+        <v>0.9999623290521643</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991908958903877</v>
+        <v>0.9992950487745093</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9994721396457641</v>
+        <v>0.999983035804458</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9974630226090786</v>
+        <v>0.9999607493187129</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9990027339865533</v>
+        <v>0.9999761283066583</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001792195114601109</v>
+        <v>3.516417624110102e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007552631707574038</v>
+        <v>0.0006580410252131201</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0004307647864372781</v>
+        <v>1.144500115184043e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0006600779842507575</v>
+        <v>1.663940352132477e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0005454213853440179</v>
+        <v>1.40422023365826e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001060914298094274</v>
+        <v>0.0004693852540605152</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01338728917518819</v>
+        <v>0.005929938974483719</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00021942359978</v>
+        <v>1.000043052511812</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01395721379088492</v>
+        <v>0.006182388753293417</v>
       </c>
       <c r="P17" t="n">
-        <v>107.2537983648695</v>
+        <v>110.5109654280251</v>
       </c>
       <c r="Q17" t="n">
-        <v>162.1032104839385</v>
+        <v>165.3603775470941</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_8</t>
+          <t>model_28_1_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998046332785312</v>
+        <v>0.9999681427025308</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991890477684507</v>
+        <v>0.9992864806009903</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9994618897487192</v>
+        <v>0.9999820535597322</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9974458228618932</v>
+        <v>0.9999561383376233</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9989910026341075</v>
+        <v>0.9999739035259636</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001823662588831318</v>
+        <v>2.97373888138303e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007569883114623534</v>
+        <v>0.0006660390390936311</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0004391292992788183</v>
+        <v>1.210767873008521e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000664553063331997</v>
+        <v>1.859412054695037e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000551837457301444</v>
+        <v>1.535089963851779e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001088888029309318</v>
+        <v>0.000442133315750581</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01350430519808893</v>
+        <v>0.005453199869235521</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000223276253107</v>
+        <v>1.000036408339965</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01407921142813711</v>
+        <v>0.005685353877348806</v>
       </c>
       <c r="P18" t="n">
-        <v>107.2189869632582</v>
+        <v>110.8462108425268</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.0683990823272</v>
+        <v>165.6956229615958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_7</t>
+          <t>model_28_1_1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998007338847036</v>
+        <v>0.9992690923401299</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991867785402226</v>
+        <v>0.999279282513484</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9994503649998393</v>
+        <v>0.9999794553753366</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9974269581308125</v>
+        <v>0.9999727232138895</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9989779105170984</v>
+        <v>0.9999783897203457</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000186006171857637</v>
+        <v>0.0006822702173503861</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007591065364056964</v>
+        <v>0.0006727581378213993</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0004485341654525507</v>
+        <v>1.386056016365151e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0006694613426527944</v>
+        <v>1.156335217564447e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0005589977540526726</v>
+        <v>1.271195616964799e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001119903521687793</v>
+        <v>0.001458756260446675</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01363840796638805</v>
+        <v>0.02612030278060318</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000227732703196</v>
+        <v>1.000835323039851</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01421902322891372</v>
+        <v>0.02723229814645426</v>
       </c>
       <c r="P19" t="n">
-        <v>107.1794614055426</v>
+        <v>104.5801695309375</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.0288735246116</v>
+        <v>159.4295816500066</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_6</t>
+          <t>model_28_1_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9997962159116462</v>
+        <v>0.9999727293008871</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991839877310904</v>
+        <v>0.9992780879659142</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9994373931648354</v>
+        <v>0.9999807297801724</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9974062882266714</v>
+        <v>0.9999516365226842</v>
       </c>
       <c r="F20" t="n">
-        <v>0.998963310467994</v>
+        <v>0.9999715236034076</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001902235013906193</v>
+        <v>2.545600057653436e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000761711634228271</v>
+        <v>0.0006738731955431509</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0004591199381674917</v>
+        <v>1.300077493086234e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0006748392970283273</v>
+        <v>2.050255914968006e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0005669827639710191</v>
+        <v>1.675085705248123e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001154283207100046</v>
+        <v>0.0004176828238400013</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01379215361684387</v>
+        <v>0.005045393996164656</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000232896100976</v>
+        <v>1.000031166513272</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01437931415000681</v>
+        <v>0.005260186863986781</v>
       </c>
       <c r="P20" t="n">
-        <v>107.1346217080424</v>
+        <v>111.1571181274412</v>
       </c>
       <c r="Q20" t="n">
-        <v>161.9840338271114</v>
+        <v>166.0065302465102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_5</t>
+          <t>model_28_1_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9997909932380756</v>
+        <v>0.9999763329864937</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991805365714413</v>
+        <v>0.9992699941792197</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9994228171128691</v>
+        <v>0.9999791417563956</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9973841070411666</v>
+        <v>0.9999472582238845</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9989471656145336</v>
+        <v>0.9999690339017062</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001950986379198554</v>
+        <v>2.209211824634967e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007649331402722849</v>
+        <v>0.0006814283901463166</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004710148453374391</v>
+        <v>1.407214515348247e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0006806104608820832</v>
+        <v>2.235863598896001e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0005758126531097611</v>
+        <v>1.821539057122124e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001192323534272707</v>
+        <v>0.0003954383816593222</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01396777140133154</v>
+        <v>0.004700225339954423</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000238864870771</v>
+        <v>1.000027048015436</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01456240834715907</v>
+        <v>0.004900323663484057</v>
       </c>
       <c r="P21" t="n">
-        <v>107.0840105836115</v>
+        <v>111.4405793069771</v>
       </c>
       <c r="Q21" t="n">
-        <v>161.9334227026805</v>
+        <v>166.2899914260462</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_4</t>
+          <t>model_28_1_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999784934003212</v>
+        <v>0.9999791513804509</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991762807571392</v>
+        <v>0.9992622379073555</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9994064317021731</v>
+        <v>0.999977399279921</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9973603272433408</v>
+        <v>0.9999431416122412</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9989292848783474</v>
+        <v>0.999966551300558</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002007546676953871</v>
+        <v>1.94612712004773e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007689057561146436</v>
+        <v>0.0006886685294706239</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004843862945900165</v>
+        <v>1.524771785946196e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0006867975562306543</v>
+        <v>2.410377671082879e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0005855919254103353</v>
+        <v>1.967574728514537e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001234414812818095</v>
+        <v>0.0003757371110991054</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01416879203374046</v>
+        <v>0.004411493080633507</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000245789710615</v>
+        <v>1.00002382699377</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0147719868440597</v>
+        <v>0.004599299474125676</v>
       </c>
       <c r="P22" t="n">
-        <v>107.0268539082462</v>
+        <v>111.6941683191488</v>
       </c>
       <c r="Q22" t="n">
-        <v>161.8762660273152</v>
+        <v>166.5435804382178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_3</t>
+          <t>model_28_1_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9997778933207608</v>
+        <v>0.999981350044946</v>
       </c>
       <c r="C23" t="n">
-        <v>0.99917103123597</v>
+        <v>0.9992548474122698</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9993879858107988</v>
+        <v>0.9999755780239253</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9973350928485731</v>
+        <v>0.9999393350055921</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9989095216516607</v>
+        <v>0.9999641367014143</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000207326835713304</v>
+        <v>1.740891440449614e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007738059536987307</v>
+        <v>0.0006955672322278371</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004994392160582629</v>
+        <v>1.647643966459694e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0006933631127435429</v>
+        <v>2.571749810376573e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000596400763105585</v>
+        <v>2.109610273509353e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001280954959889979</v>
+        <v>0.0003626798048294411</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01439884841622079</v>
+        <v>0.004172399118552316</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000253836204845</v>
+        <v>1.000021314234347</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01501183720302459</v>
+        <v>0.004350026787085957</v>
       </c>
       <c r="P23" t="n">
-        <v>106.9624281867753</v>
+        <v>111.9170563216769</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.8118403058443</v>
+        <v>166.766468440746</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_2</t>
+          <t>model_28_1_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.99976971196742</v>
+        <v>0.9999830432573261</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991645421609698</v>
+        <v>0.999247922437688</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9993672740328456</v>
+        <v>0.9999736908440153</v>
       </c>
       <c r="E24" t="n">
-        <v>0.997308828865064</v>
+        <v>0.9999357262063016</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9988878215833151</v>
+        <v>0.9999617526301255</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002149637699370387</v>
+        <v>1.582837497111747e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007798632203739577</v>
+        <v>0.000702031392028652</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0005163412329177508</v>
+        <v>1.774963745287783e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0007001965505799046</v>
+        <v>2.724736371765814e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0006082688917488277</v>
+        <v>2.249850058526799e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001332452864802837</v>
+        <v>0.0003509895365016251</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01466164281167151</v>
+        <v>0.003978489031167168</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000263186322949</v>
+        <v>1.000019379134484</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01528581929994903</v>
+        <v>0.004147861545831605</v>
       </c>
       <c r="P24" t="n">
-        <v>106.8900821119142</v>
+        <v>112.1074126887109</v>
       </c>
       <c r="Q24" t="n">
-        <v>161.7394942309832</v>
+        <v>166.9568248077799</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_1</t>
+          <t>model_28_1_0</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9997602187925645</v>
+        <v>0.9991563142849238</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991564963781141</v>
+        <v>0.99924666707521</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9993440477327429</v>
+        <v>0.9999882855878871</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9972825512049811</v>
+        <v>0.999974923637501</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9988642421199324</v>
+        <v>0.9999842458404903</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002238252319625048</v>
+        <v>0.0007875435815008452</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007873736055006473</v>
+        <v>0.0007032032177977563</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00053529524627225</v>
+        <v>7.903201763572887e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000707033546826055</v>
+        <v>1.063053431905395e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0006211648928262568</v>
+        <v>9.267172307878191e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001389470946291576</v>
+        <v>0.001503424571827421</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01496078981746969</v>
+        <v>0.02806320689979756</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000274035665641</v>
+        <v>1.000964212245801</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01559770161310372</v>
+        <v>0.02925791571636873</v>
       </c>
       <c r="P25" t="n">
-        <v>106.8092900501761</v>
+        <v>104.2931836944148</v>
       </c>
       <c r="Q25" t="n">
-        <v>161.6587021692451</v>
+        <v>159.1425958134838</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_28_1_0</t>
+          <t>model_28_1_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9997492039986224</v>
+        <v>0.9999843509293709</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991465418283549</v>
+        <v>0.9992413997853046</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9993180509396845</v>
+        <v>0.9999718367441622</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9972573136741224</v>
+        <v>0.9999324679278763</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9988388371452007</v>
+        <v>0.9999595156505908</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0002341070586138619</v>
+        <v>1.46077205174278e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000796665740746588</v>
+        <v>0.0007081200017171893</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0005565101432046403</v>
+        <v>1.90005175727674e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0007135999192960399</v>
+        <v>2.86286342516919e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0006350592964517118</v>
+        <v>2.381437369067645e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001452333111966752</v>
+        <v>0.0003403084876438003</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0153005574608856</v>
+        <v>0.003822004777263864</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000286624001574</v>
+        <v>1.000017884652147</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01595193386851582</v>
+        <v>0.003984715433272576</v>
       </c>
       <c r="P26" t="n">
-        <v>106.719464063582</v>
+        <v>112.2679207329065</v>
       </c>
       <c r="Q26" t="n">
-        <v>161.568876182651</v>
+        <v>167.1173328519755</v>
       </c>
     </row>
   </sheetData>
